--- a/input/mappings/scaling/Edgar_scaling_mapping.xlsx
+++ b/input/mappings/scaling/Edgar_scaling_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="480" windowWidth="17720" windowHeight="12980" tabRatio="500"/>
+    <workbookView xWindow="-25000" yWindow="7480" windowWidth="17580" windowHeight="12940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -107,18 +107,9 @@
     <t>1A4c_Agriculture-forestry-fishing</t>
   </si>
   <si>
-    <t>1A5_Other-unspecified</t>
-  </si>
-  <si>
     <t>1B2_Fugitive-petr-and-gas</t>
   </si>
   <si>
-    <t>2A1_Cement-production</t>
-  </si>
-  <si>
-    <t>2A2_Lime-production</t>
-  </si>
-  <si>
     <t>2B_Chemical-industry</t>
   </si>
   <si>
@@ -128,87 +119,12 @@
     <t>1A3ai_International-aviation</t>
   </si>
   <si>
-    <t>1A1a1</t>
-  </si>
-  <si>
-    <t>1A1a2</t>
-  </si>
-  <si>
-    <t>1A1a5</t>
-  </si>
-  <si>
-    <t>1A1a6</t>
-  </si>
-  <si>
-    <t>1A1a7</t>
-  </si>
-  <si>
-    <t>1A1ax2</t>
-  </si>
-  <si>
-    <t>1A1ax4</t>
-  </si>
-  <si>
-    <t>1A1ax5</t>
-  </si>
-  <si>
-    <t>1A1ax6</t>
-  </si>
-  <si>
-    <t>1A1ax7</t>
-  </si>
-  <si>
-    <t>1A1b</t>
-  </si>
-  <si>
-    <t>1A1c1</t>
-  </si>
-  <si>
-    <t>1A1c5</t>
-  </si>
-  <si>
-    <t>1A2a</t>
-  </si>
-  <si>
-    <t>1A2ax</t>
-  </si>
-  <si>
-    <t>1A2b</t>
-  </si>
-  <si>
-    <t>1A2c</t>
-  </si>
-  <si>
-    <t>1A2d</t>
-  </si>
-  <si>
-    <t>1A2dx</t>
-  </si>
-  <si>
-    <t>1A2e</t>
-  </si>
-  <si>
-    <t>1A2f</t>
-  </si>
-  <si>
-    <t>1A2f1</t>
-  </si>
-  <si>
-    <t>1A2f2</t>
-  </si>
-  <si>
-    <t>1A2fx</t>
-  </si>
-  <si>
     <t>1A3a</t>
   </si>
   <si>
     <t>1A3b</t>
   </si>
   <si>
-    <t>1A3bx</t>
-  </si>
-  <si>
     <t>1A3c</t>
   </si>
   <si>
@@ -218,169 +134,106 @@
     <t>1A3e</t>
   </si>
   <si>
-    <t>1A4a</t>
-  </si>
-  <si>
-    <t>1A4ax</t>
-  </si>
-  <si>
-    <t>1A4b</t>
-  </si>
-  <si>
-    <t>1A4bx</t>
-  </si>
-  <si>
-    <t>1A4c1</t>
-  </si>
-  <si>
-    <t>1A4c1x</t>
-  </si>
-  <si>
-    <t>1A4c2</t>
-  </si>
-  <si>
-    <t>1A4d</t>
-  </si>
-  <si>
-    <t>1B2c</t>
-  </si>
-  <si>
-    <t>2B5a</t>
-  </si>
-  <si>
-    <t>2B5g</t>
-  </si>
-  <si>
-    <t>2C2</t>
-  </si>
-  <si>
-    <t>2C3a</t>
-  </si>
-  <si>
-    <t>2C5cp</t>
-  </si>
-  <si>
-    <t>2C5cs</t>
-  </si>
-  <si>
-    <t>2C5lp</t>
-  </si>
-  <si>
-    <t>2C5ls</t>
-  </si>
-  <si>
-    <t>2C5zp</t>
-  </si>
-  <si>
-    <t>6Cax</t>
-  </si>
-  <si>
-    <t>6Cb1</t>
-  </si>
-  <si>
-    <t>6Cb2</t>
-  </si>
-  <si>
-    <t>1A4dx</t>
-  </si>
-  <si>
-    <t>1A1a3</t>
-  </si>
-  <si>
-    <t>1A1ax1</t>
-  </si>
-  <si>
-    <t>1A1c2</t>
-  </si>
-  <si>
-    <t>1A1c3</t>
-  </si>
-  <si>
-    <t>1A2cx</t>
-  </si>
-  <si>
-    <t>1A2ex</t>
-  </si>
-  <si>
-    <t>1A3cx</t>
-  </si>
-  <si>
-    <t>1A3ex</t>
-  </si>
-  <si>
-    <t>2B5g2</t>
-  </si>
-  <si>
-    <t>2C5zs</t>
-  </si>
-  <si>
-    <t>7A1</t>
-  </si>
-  <si>
-    <t>1A1a4</t>
-  </si>
-  <si>
-    <t>1A1cx5</t>
-  </si>
-  <si>
-    <t>1A2bx</t>
-  </si>
-  <si>
-    <t>1A3dx</t>
-  </si>
-  <si>
-    <t>1A4c3</t>
-  </si>
-  <si>
-    <t>1A4c3x</t>
-  </si>
-  <si>
-    <t>1A5b1</t>
-  </si>
-  <si>
-    <t>1A1ax3</t>
-  </si>
-  <si>
-    <t>1A1bx</t>
-  </si>
-  <si>
-    <t>2A1</t>
-  </si>
-  <si>
-    <t>2A4a</t>
-  </si>
-  <si>
-    <t>2A2</t>
-  </si>
-  <si>
-    <t>1A1cx3</t>
-  </si>
-  <si>
-    <t>1A1cx4</t>
-  </si>
-  <si>
-    <t>7A2</t>
-  </si>
-  <si>
     <t>1C2</t>
   </si>
   <si>
-    <t>1C2x</t>
-  </si>
-  <si>
     <t>1C1</t>
   </si>
   <si>
     <t>1A2c_Ind-Comb-Chemicals</t>
   </si>
   <si>
-    <t>1A3a_aviation</t>
-  </si>
-  <si>
-    <t>1A3d_shipping</t>
-  </si>
-  <si>
     <t>7A_Fossil-fuel-fires</t>
+  </si>
+  <si>
+    <t>1A1a</t>
+  </si>
+  <si>
+    <t>1A1bc</t>
+  </si>
+  <si>
+    <t>1A2</t>
+  </si>
+  <si>
+    <t>1A4</t>
+  </si>
+  <si>
+    <t>1B2</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>4E</t>
+  </si>
+  <si>
+    <t>4F</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>5C</t>
+  </si>
+  <si>
+    <t>5D</t>
+  </si>
+  <si>
+    <t>6C</t>
+  </si>
+  <si>
+    <t>7A</t>
+  </si>
+  <si>
+    <t>1A2g_Ind-Comb-Construction</t>
+  </si>
+  <si>
+    <t>1A2g_Ind-Comb-transpequip</t>
+  </si>
+  <si>
+    <t>1A2g_Ind-Comb-machinery</t>
+  </si>
+  <si>
+    <t>1A2g_Ind-Comb-mining-quarying</t>
+  </si>
+  <si>
+    <t>1A2g_Ind-Comb-wood-products</t>
+  </si>
+  <si>
+    <t>1A2g_Ind-Comb-textile-leather</t>
+  </si>
+  <si>
+    <t>1A2g_Ind-Comb-other</t>
+  </si>
+  <si>
+    <t>1B2d_Fugitive-other-energy</t>
+  </si>
+  <si>
+    <t>2H_Pulp-and-paper-food-beverage-wood</t>
+  </si>
+  <si>
+    <t>3F_Agricultural-residue-burning-on-fields</t>
+  </si>
+  <si>
+    <t>5C_Waste-incineration</t>
+  </si>
+  <si>
+    <t>other-in-total</t>
+  </si>
+  <si>
+    <t>6A_Other-in-total</t>
+  </si>
+  <si>
+    <t>11B_Forest-fires</t>
+  </si>
+  <si>
+    <t>11C_Other-natural</t>
   </si>
 </sst>
 </file>
@@ -436,8 +289,112 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -533,7 +490,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="91">
+  <cellStyles count="195">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -579,6 +536,58 @@
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -624,6 +633,58 @@
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -953,16 +1014,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="27.1640625" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -978,29 +1040,26 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>87</v>
-      </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -1008,606 +1067,360 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>88</v>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>40</v>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>105</v>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>41</v>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>42</v>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>43</v>
       </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>44</v>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>106</v>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>49</v>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
+        <v>45</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>100</v>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>107</v>
-      </c>
-      <c r="B64" t="s">
-        <v>30</v>
-      </c>
-      <c r="C64" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>109</v>
-      </c>
-      <c r="B65" t="s">
-        <v>31</v>
-      </c>
-      <c r="C65" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>108</v>
-      </c>
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>74</v>
-      </c>
-      <c r="B67" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>95</v>
-      </c>
-      <c r="B69" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" t="s">
-        <v>33</v>
-      </c>
-      <c r="C70" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>77</v>
-      </c>
-      <c r="B71" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B72" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>79</v>
-      </c>
-      <c r="B73" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>80</v>
-      </c>
-      <c r="B74" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>81</v>
-      </c>
-      <c r="B75" t="s">
-        <v>33</v>
-      </c>
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>82</v>
-      </c>
-      <c r="B76" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>96</v>
-      </c>
-      <c r="B77" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>97</v>
-      </c>
-      <c r="B81" t="s">
-        <v>119</v>
-      </c>
-      <c r="C81" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>112</v>
-      </c>
-      <c r="B82" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="B83" t="s">
-        <v>59</v>
-      </c>
-      <c r="C83" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="B84" t="s">
-        <v>118</v>
-      </c>
-      <c r="C84" t="s">
-        <v>22</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A1:C84">

--- a/input/mappings/scaling/Edgar_scaling_mapping.xlsx
+++ b/input/mappings/scaling/Edgar_scaling_mapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25000" yWindow="7480" windowWidth="17580" windowHeight="12940" tabRatio="500"/>
+    <workbookView xWindow="3880" yWindow="960" windowWidth="24640" windowHeight="13920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>11C_Other-natural</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Don't include in CMIP6 data product</t>
   </si>
 </sst>
 </file>
@@ -289,8 +295,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="195">
+  <cellStyleXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -490,7 +502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="195">
+  <cellStyles count="201">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -588,6 +600,9 @@
     <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -685,6 +700,9 @@
     <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1014,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1027,7 +1045,7 @@
     <col min="7" max="7" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1037,8 +1055,11 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1049,7 +1070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
         <v>41</v>
       </c>
@@ -1057,7 +1078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
         <v>41</v>
       </c>
@@ -1065,7 +1086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1076,7 +1097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1087,7 +1108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
         <v>43</v>
       </c>
@@ -1095,7 +1116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
         <v>43</v>
       </c>
@@ -1103,7 +1124,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="B9" t="s">
         <v>43</v>
       </c>
@@ -1111,7 +1132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="B10" t="s">
         <v>43</v>
       </c>
@@ -1119,7 +1140,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="B11" t="s">
         <v>43</v>
       </c>
@@ -1127,7 +1148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="B12" t="s">
         <v>43</v>
       </c>
@@ -1135,7 +1156,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="B13" t="s">
         <v>43</v>
       </c>
@@ -1143,7 +1164,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="B14" t="s">
         <v>43</v>
       </c>
@@ -1151,7 +1172,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="B15" t="s">
         <v>43</v>
       </c>
@@ -1159,7 +1180,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="B16" t="s">
         <v>43</v>
       </c>
@@ -1328,7 +1349,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -1339,7 +1360,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -1350,51 +1371,52 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>50</v>
       </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
       <c r="C35" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="B36" s="1"/>
       <c r="C36" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>52</v>
       </c>
-      <c r="B37" t="s">
-        <v>52</v>
-      </c>
       <c r="C37" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>53</v>
       </c>
-      <c r="B38" t="s">
-        <v>53</v>
-      </c>
       <c r="C38" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -1405,7 +1427,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>55</v>
       </c>

--- a/input/mappings/scaling/Edgar_scaling_mapping.xlsx
+++ b/input/mappings/scaling/Edgar_scaling_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="4260" windowWidth="17560" windowHeight="16040" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="139">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -246,6 +246,198 @@
   </si>
   <si>
     <t>1B1_Fugitive-solid-fuels</t>
+  </si>
+  <si>
+    <t>6B</t>
+  </si>
+  <si>
+    <t>5E_Other-waste-handling</t>
+  </si>
+  <si>
+    <t>6D</t>
+  </si>
+  <si>
+    <t>5D_Wastewater-handling</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>2D_Degreasing-Cleaning</t>
+  </si>
+  <si>
+    <t>2D3_Other-product-use</t>
+  </si>
+  <si>
+    <t>2D_Paint-application</t>
+  </si>
+  <si>
+    <t>2D3_Chemical-products-manufacture-processing</t>
+  </si>
+  <si>
+    <t>2A1</t>
+  </si>
+  <si>
+    <t>2A1_Cement-production</t>
+  </si>
+  <si>
+    <t>2A2</t>
+  </si>
+  <si>
+    <t>2A2_Lime-production</t>
+  </si>
+  <si>
+    <t>2A4</t>
+  </si>
+  <si>
+    <t>2A6_Other-minerals</t>
+  </si>
+  <si>
+    <t>2A7</t>
+  </si>
+  <si>
+    <t>2A4-7</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>3B_Manure-management</t>
+  </si>
+  <si>
+    <t>4D1</t>
+  </si>
+  <si>
+    <t>3D_Soil-emissions</t>
+  </si>
+  <si>
+    <t>3I_Agriculture-other</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>3D_Rice-Cultivation</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>3E_Enteric-fermentation</t>
+  </si>
+  <si>
+    <t>6A</t>
+  </si>
+  <si>
+    <t>5A_Solid-waste-disposal</t>
+  </si>
+  <si>
+    <t>Direct soil emissions</t>
+  </si>
+  <si>
+    <t>4D2</t>
+  </si>
+  <si>
+    <t>Manure in pasture/range/paddock</t>
+  </si>
+  <si>
+    <t>4D4</t>
+  </si>
+  <si>
+    <t>Other direct soil emissions</t>
+  </si>
+  <si>
+    <t>Edgar_Sector_Name</t>
+  </si>
+  <si>
+    <t>4D</t>
+  </si>
+  <si>
+    <t>Public electricity and heat production</t>
+  </si>
+  <si>
+    <t>Other Energy Industries</t>
+  </si>
+  <si>
+    <t>Manufacturing Industries and Construction</t>
+  </si>
+  <si>
+    <t>Road transportation</t>
+  </si>
+  <si>
+    <t>Rail transportation</t>
+  </si>
+  <si>
+    <t>Inland navigation</t>
+  </si>
+  <si>
+    <t>Other transportation</t>
+  </si>
+  <si>
+    <t>Residential and other sectors</t>
+  </si>
+  <si>
+    <t>Fugitive emissions from solid fuels</t>
+  </si>
+  <si>
+    <t>Production of other minerals</t>
+  </si>
+  <si>
+    <t>1A5</t>
+  </si>
+  <si>
+    <t>Don’t scale since it’s a "catch all" that is unlikely to match</t>
+  </si>
+  <si>
+    <t>Production of chemicals</t>
+  </si>
+  <si>
+    <t>Manure management</t>
+  </si>
+  <si>
+    <t>Rice cultivation</t>
+  </si>
+  <si>
+    <t>Enteric fermentation</t>
+  </si>
+  <si>
+    <t>Solvent and other product use: paint</t>
+  </si>
+  <si>
+    <t>Solvent and other product use: degrease</t>
+  </si>
+  <si>
+    <t>Solvent and other product use: chemicals</t>
+  </si>
+  <si>
+    <t>Solvent and other product use: other</t>
+  </si>
+  <si>
+    <t>Production of cement</t>
+  </si>
+  <si>
+    <t>Production of lime</t>
+  </si>
+  <si>
+    <t>Solid waste disposal on land</t>
+  </si>
+  <si>
+    <t>Wastewater handling</t>
+  </si>
+  <si>
+    <t>Waste incineration</t>
+  </si>
+  <si>
+    <t>Other waste handling</t>
   </si>
 </sst>
 </file>
@@ -301,7 +493,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="231">
+  <cellStyleXfs count="317">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -533,12 +725,101 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="231">
+  <cellStyles count="317">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -654,6 +935,49 @@
     <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -769,6 +1093,49 @@
     <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1098,426 +1465,773 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E1:E7"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="2" max="3" width="27.1640625" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="B3" t="s">
+    <row r="3" spans="1:5">
+      <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="B4" t="s">
+    <row r="4" spans="1:5">
+      <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="B7" t="s">
+    <row r="7" spans="1:5">
+      <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="B8" t="s">
+    <row r="8" spans="1:5">
+      <c r="C8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="B9" t="s">
+    <row r="9" spans="1:5">
+      <c r="C9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="B10" t="s">
+    <row r="10" spans="1:5">
+      <c r="C10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="B11" t="s">
+    <row r="11" spans="1:5">
+      <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="B12" t="s">
+    <row r="12" spans="1:5">
+      <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="B13" t="s">
+    <row r="13" spans="1:5">
+      <c r="C13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="B14" t="s">
+    <row r="14" spans="1:5">
+      <c r="C14" t="s">
         <v>43</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="B15" t="s">
+    <row r="15" spans="1:5">
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="B16" t="s">
+    <row r="16" spans="1:5">
+      <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="B17" t="s">
+    <row r="17" spans="1:5">
+      <c r="C17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
+    <row r="18" spans="1:5">
+      <c r="C18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" t="s">
         <v>33</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" t="s">
         <v>34</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>35</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" t="s">
         <v>35</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>36</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" t="s">
         <v>36</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>44</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
         <v>44</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
+    <row r="25" spans="1:5">
+      <c r="C25" t="s">
         <v>44</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="26" spans="1:5">
+      <c r="C26" t="s">
         <v>44</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>73</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" t="s">
         <v>73</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D28" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="B29" s="1" t="s">
+    <row r="30" spans="1:5">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C31" t="s">
         <v>38</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C32" t="s">
         <v>37</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D32" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>89</v>
+      </c>
+      <c r="D34" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>94</v>
+      </c>
+      <c r="D35" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>93</v>
+      </c>
+      <c r="B36" t="s">
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" t="s">
-        <v>69</v>
+        <v>46</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="D50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D55" t="s">
         <v>70</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E55" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
         <v>54</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B58" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" t="s">
         <v>54</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D58" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
+    <row r="59" spans="1:5">
+      <c r="A59" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
         <v>55</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C60" t="s">
         <v>55</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D60" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="3:3">
-      <c r="C59" s="1"/>
+    <row r="61" spans="1:5">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="3"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="3"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="3"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="3"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="D78" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A1:C84">

--- a/input/mappings/scaling/Edgar_scaling_mapping.xlsx
+++ b/input/mappings/scaling/Edgar_scaling_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="10660" yWindow="4560" windowWidth="25040" windowHeight="14320" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="151">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -438,6 +438,42 @@
   </si>
   <si>
     <t>Other waste handling</t>
+  </si>
+  <si>
+    <t>rou</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>select_scaling_year</t>
+  </si>
+  <si>
+    <t>1980, 1991,2000,2010</t>
+  </si>
+  <si>
+    <t>start_scaling_year</t>
+  </si>
+  <si>
+    <t>end_scaling_year</t>
+  </si>
+  <si>
+    <t>mkd</t>
+  </si>
+  <si>
+    <t>1980, 1992</t>
+  </si>
+  <si>
+    <t>idn</t>
+  </si>
+  <si>
+    <t>Eliminate jump in CO emissions present in EDGAR data</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Reduce jumps in emissions</t>
   </si>
 </sst>
 </file>
@@ -493,8 +529,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="317">
+  <cellStyleXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -819,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="317">
+  <cellStyles count="337">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -978,6 +1034,16 @@
     <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1136,6 +1202,16 @@
     <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1467,11 +1543,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2309,15 +2385,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2330,19 +2409,95 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>1990</v>
+      </c>
+      <c r="F4">
+        <v>2010</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/Edgar_scaling_mapping.xlsx
+++ b/input/mappings/scaling/Edgar_scaling_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10660" yWindow="4560" windowWidth="25040" windowHeight="14320" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="6740" yWindow="7320" windowWidth="20200" windowHeight="8820" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="151">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -449,9 +449,6 @@
     <t>select_scaling_year</t>
   </si>
   <si>
-    <t>1980, 1991,2000,2010</t>
-  </si>
-  <si>
     <t>start_scaling_year</t>
   </si>
   <si>
@@ -461,9 +458,6 @@
     <t>mkd</t>
   </si>
   <si>
-    <t>1980, 1992</t>
-  </si>
-  <si>
     <t>idn</t>
   </si>
   <si>
@@ -474,6 +468,12 @@
   </si>
   <si>
     <t>Reduce jumps in emissions</t>
+  </si>
+  <si>
+    <t>svk</t>
+  </si>
+  <si>
+    <t>Don't calibrate to flat 1990s flat portion that is not in EMEP expert data</t>
   </si>
 </sst>
 </file>
@@ -529,8 +529,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="337">
+  <cellStyleXfs count="363">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -875,7 +901,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="337">
+  <cellStyles count="363">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1044,6 +1070,19 @@
     <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1212,6 +1251,19 @@
     <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2385,10 +2437,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2413,21 +2465,21 @@
         <v>141</v>
       </c>
       <c r="F1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" t="s">
         <v>143</v>
       </c>
-      <c r="G1" t="s">
-        <v>144</v>
-      </c>
       <c r="H1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -2436,21 +2488,21 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>1990</v>
+      </c>
+      <c r="G2">
+        <v>2010</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
         <v>140</v>
@@ -2462,13 +2514,13 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>2000</v>
+      </c>
+      <c r="G3">
+        <v>2010</v>
       </c>
       <c r="H3" t="s">
         <v>150</v>
@@ -2476,10 +2528,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -2488,15 +2540,145 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>1990</v>
-      </c>
-      <c r="F4">
+        <v>1980</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>1991</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>2000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
         <v>2010</v>
       </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>1980</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>1992</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
         <v>148</v>
       </c>
     </row>

--- a/input/mappings/scaling/Edgar_scaling_mapping.xlsx
+++ b/input/mappings/scaling/Edgar_scaling_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6740" yWindow="7320" windowWidth="20200" windowHeight="8820" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="150">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -305,9 +305,6 @@
     <t>2A7</t>
   </si>
   <si>
-    <t>2A4-7</t>
-  </si>
-  <si>
     <t>4B</t>
   </si>
   <si>
@@ -359,9 +356,6 @@
     <t>Edgar_Sector_Name</t>
   </si>
   <si>
-    <t>4D</t>
-  </si>
-  <si>
     <t>Public electricity and heat production</t>
   </si>
   <si>
@@ -474,6 +468,9 @@
   </si>
   <si>
     <t>Don't calibrate to flat 1990s flat portion that is not in EMEP expert data</t>
+  </si>
+  <si>
+    <t>Don't scale since is set as default emissions (and in some cases, overwritten with other inventory data)</t>
   </si>
 </sst>
 </file>
@@ -529,8 +526,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="363">
+  <cellStyleXfs count="377">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -901,7 +912,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="363">
+  <cellStyles count="377">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1083,6 +1094,13 @@
     <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1264,6 +1282,13 @@
     <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1595,11 +1620,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1615,7 +1640,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -1632,7 +1657,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
@@ -1662,13 +1687,14 @@
         <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C5" s="1"/>
       <c r="D5" t="s">
         <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1676,7 +1702,7 @@
         <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
@@ -1798,7 +1824,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
@@ -1812,7 +1838,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
@@ -1826,7 +1852,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
@@ -1840,7 +1866,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
@@ -1854,7 +1880,7 @@
         <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
@@ -1881,13 +1907,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1895,13 +1921,13 @@
         <v>73</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
         <v>74</v>
+      </c>
+      <c r="E28" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1909,31 +1935,30 @@
         <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C29" s="1"/>
       <c r="D29" t="s">
         <v>28</v>
       </c>
+      <c r="E29" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="C30" s="1"/>
       <c r="D30" t="s">
         <v>63</v>
+      </c>
+      <c r="E30" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="C31" t="s">
-        <v>38</v>
-      </c>
       <c r="D31" t="s">
         <v>31</v>
       </c>
@@ -1942,254 +1967,258 @@
       <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="C32" t="s">
-        <v>37</v>
-      </c>
       <c r="D32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
-      </c>
-      <c r="C33" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="D34" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D35" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C37" s="1"/>
       <c r="D37" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>48</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>79</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" t="s">
         <v>102</v>
       </c>
-      <c r="B44" t="s">
-        <v>128</v>
-      </c>
-      <c r="C44" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" t="s">
         <v>95</v>
       </c>
-      <c r="D45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>100</v>
-      </c>
-      <c r="B46" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D47" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>107</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" t="s">
-        <v>96</v>
+      <c r="E48" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="E49" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="D50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2251,16 +2280,16 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" t="s">
         <v>104</v>
       </c>
-      <c r="B56" t="s">
-        <v>135</v>
-      </c>
-      <c r="C56" t="s">
-        <v>104</v>
-      </c>
-      <c r="D56" t="s">
-        <v>105</v>
+      <c r="E56" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2268,13 +2297,14 @@
         <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s">
         <v>78</v>
+      </c>
+      <c r="E57" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2282,13 +2312,13 @@
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
-      </c>
-      <c r="C58" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="D58" t="s">
         <v>66</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2296,13 +2326,14 @@
         <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>138</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>77</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s">
         <v>76</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2439,7 +2470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
@@ -2462,21 +2493,21 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" t="s">
         <v>141</v>
       </c>
-      <c r="F1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" t="s">
-        <v>143</v>
-      </c>
       <c r="H1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
@@ -2497,15 +2528,15 @@
         <v>2010</v>
       </c>
       <c r="H2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -2523,15 +2554,15 @@
         <v>2010</v>
       </c>
       <c r="H3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -2549,15 +2580,15 @@
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -2575,15 +2606,15 @@
         <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -2601,15 +2632,15 @@
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -2627,15 +2658,15 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -2653,15 +2684,15 @@
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -2679,7 +2710,7 @@
         <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/Edgar_scaling_mapping.xlsx
+++ b/input/mappings/scaling/Edgar_scaling_mapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="11260" yWindow="5600" windowWidth="25040" windowHeight="14320" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="176">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -471,6 +471,84 @@
   </si>
   <si>
     <t>Don't scale since is set as default emissions (and in some cases, overwritten with other inventory data)</t>
+  </si>
+  <si>
+    <t>Do not scale FSU countries before 1992 since data are unlikely to match inventory assumptions</t>
+  </si>
+  <si>
+    <t>arm</t>
+  </si>
+  <si>
+    <t>aze</t>
+  </si>
+  <si>
+    <t>blr</t>
+  </si>
+  <si>
+    <t>est</t>
+  </si>
+  <si>
+    <t>geo</t>
+  </si>
+  <si>
+    <t>kaz</t>
+  </si>
+  <si>
+    <t>kgz</t>
+  </si>
+  <si>
+    <t>ltu</t>
+  </si>
+  <si>
+    <t>lva</t>
+  </si>
+  <si>
+    <t>mda</t>
+  </si>
+  <si>
+    <t>rus</t>
+  </si>
+  <si>
+    <t>tjk</t>
+  </si>
+  <si>
+    <t>tkm</t>
+  </si>
+  <si>
+    <t>ukr</t>
+  </si>
+  <si>
+    <t>uzb</t>
+  </si>
+  <si>
+    <t>scg</t>
+  </si>
+  <si>
+    <t>srb</t>
+  </si>
+  <si>
+    <t>svn</t>
+  </si>
+  <si>
+    <t>bih</t>
+  </si>
+  <si>
+    <t>hrv</t>
+  </si>
+  <si>
+    <t>mne</t>
+  </si>
+  <si>
+    <t>Do not scale former Yugosloavia countries before 1992 since data are unlikely to match inventory assumptions</t>
+  </si>
+  <si>
+    <t>Only scale rail transportation for a few years to avoid large jumps in EF</t>
+  </si>
+  <si>
+    <t>alb</t>
+  </si>
+  <si>
+    <t>Avoid albania jump in EF after 2008 (CHECK: may need to also stop emep scaling)</t>
   </si>
 </sst>
 </file>
@@ -526,7 +604,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="377">
+  <cellStyleXfs count="401">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -904,15 +982,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="377">
+  <cellStyles count="401">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1101,6 +1204,18 @@
     <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1289,6 +1404,18 @@
     <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1620,11 +1747,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2468,10 +2595,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2713,6 +2841,656 @@
         <v>146</v>
       </c>
     </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>1992</v>
+      </c>
+      <c r="G10">
+        <v>2020</v>
+      </c>
+      <c r="H10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>1992</v>
+      </c>
+      <c r="G11">
+        <v>2020</v>
+      </c>
+      <c r="H11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>1992</v>
+      </c>
+      <c r="G12">
+        <v>2020</v>
+      </c>
+      <c r="H12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>1992</v>
+      </c>
+      <c r="G13">
+        <v>2020</v>
+      </c>
+      <c r="H13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>1992</v>
+      </c>
+      <c r="G14">
+        <v>2020</v>
+      </c>
+      <c r="H14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>1992</v>
+      </c>
+      <c r="G15">
+        <v>2020</v>
+      </c>
+      <c r="H15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>1992</v>
+      </c>
+      <c r="G16">
+        <v>2020</v>
+      </c>
+      <c r="H16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>1992</v>
+      </c>
+      <c r="G17">
+        <v>2020</v>
+      </c>
+      <c r="H17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>1992</v>
+      </c>
+      <c r="G18">
+        <v>2020</v>
+      </c>
+      <c r="H18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>1992</v>
+      </c>
+      <c r="G19">
+        <v>2020</v>
+      </c>
+      <c r="H19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>1992</v>
+      </c>
+      <c r="G20">
+        <v>2020</v>
+      </c>
+      <c r="H20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>1992</v>
+      </c>
+      <c r="G21">
+        <v>2020</v>
+      </c>
+      <c r="H21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>1992</v>
+      </c>
+      <c r="G22">
+        <v>2020</v>
+      </c>
+      <c r="H22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>1992</v>
+      </c>
+      <c r="G23">
+        <v>2020</v>
+      </c>
+      <c r="H23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>1992</v>
+      </c>
+      <c r="G24">
+        <v>2020</v>
+      </c>
+      <c r="H24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>1992</v>
+      </c>
+      <c r="G25">
+        <v>2020</v>
+      </c>
+      <c r="H25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>1992</v>
+      </c>
+      <c r="G26">
+        <v>2020</v>
+      </c>
+      <c r="H26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>1992</v>
+      </c>
+      <c r="G27">
+        <v>2020</v>
+      </c>
+      <c r="H27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>1992</v>
+      </c>
+      <c r="G28">
+        <v>2020</v>
+      </c>
+      <c r="H28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>1992</v>
+      </c>
+      <c r="G29">
+        <v>2020</v>
+      </c>
+      <c r="H29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>1992</v>
+      </c>
+      <c r="G30">
+        <v>2020</v>
+      </c>
+      <c r="H30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>1992</v>
+      </c>
+      <c r="G31">
+        <v>2020</v>
+      </c>
+      <c r="H31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>1992</v>
+      </c>
+      <c r="G32">
+        <v>2020</v>
+      </c>
+      <c r="H32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>2000</v>
+      </c>
+      <c r="G33">
+        <v>2010</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>2000</v>
+      </c>
+      <c r="G34">
+        <v>2008</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/input/mappings/scaling/Edgar_scaling_mapping.xlsx
+++ b/input/mappings/scaling/Edgar_scaling_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11260" yWindow="5600" windowWidth="25040" windowHeight="14320" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="176">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -1747,11 +1747,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21:C21"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1980,9 +1980,6 @@
       </c>
       <c r="B22" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -2597,7 +2594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>

--- a/input/mappings/scaling/Edgar_scaling_mapping.xlsx
+++ b/input/mappings/scaling/Edgar_scaling_mapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14640" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>1A3di_International-shipping</t>
   </si>
   <si>
-    <t>1A3dii_Domestic-naviation</t>
-  </si>
-  <si>
     <t>1A3eii_Other-transp</t>
   </si>
   <si>
@@ -549,6 +546,9 @@
   </si>
   <si>
     <t>Avoid albania jump in EF after 2008 (CHECK: may need to also stop emep scaling)</t>
+  </si>
+  <si>
+    <t>1A3dii_Domestic-navigation</t>
   </si>
 </sst>
 </file>
@@ -1747,7 +1747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1767,7 +1767,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -1776,18 +1776,18 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1811,28 +1811,28 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -1848,15 +1848,15 @@
     </row>
     <row r="8" spans="1:5">
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="C10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -1880,81 +1880,81 @@
     </row>
     <row r="12" spans="1:5">
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="C13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="C15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="C17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
         <v>19</v>
@@ -1962,13 +1962,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
@@ -1976,120 +1976,120 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="C26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" t="s">
         <v>121</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" t="s">
-        <v>74</v>
-      </c>
       <c r="E28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
         <v>21</v>
@@ -2097,378 +2097,378 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
         <v>87</v>
       </c>
-      <c r="B33" t="s">
-        <v>131</v>
-      </c>
-      <c r="D33" t="s">
-        <v>88</v>
-      </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" t="s">
         <v>89</v>
       </c>
-      <c r="B34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" t="s">
-        <v>90</v>
-      </c>
       <c r="E34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" t="s">
         <v>91</v>
       </c>
-      <c r="B35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" t="s">
-        <v>92</v>
-      </c>
       <c r="E35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" t="s">
         <v>101</v>
       </c>
-      <c r="B44" t="s">
-        <v>126</v>
-      </c>
-      <c r="D44" t="s">
-        <v>102</v>
-      </c>
       <c r="E44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D45" t="s">
-        <v>95</v>
-      </c>
       <c r="E45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" t="s">
         <v>99</v>
       </c>
-      <c r="B46" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46" t="s">
-        <v>100</v>
-      </c>
       <c r="E46" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="D48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="D50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" t="s">
         <v>67</v>
-      </c>
-      <c r="D51" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" t="s">
         <v>103</v>
       </c>
-      <c r="B56" t="s">
-        <v>133</v>
-      </c>
-      <c r="D56" t="s">
-        <v>104</v>
-      </c>
       <c r="E56" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2594,7 +2594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
@@ -2618,24 +2618,24 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
         <v>139</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>140</v>
       </c>
-      <c r="G1" t="s">
-        <v>141</v>
-      </c>
       <c r="H1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -2653,15 +2653,15 @@
         <v>2010</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -2679,15 +2679,15 @@
         <v>2010</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s">
         <v>137</v>
-      </c>
-      <c r="B4" t="s">
-        <v>138</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -2705,15 +2705,15 @@
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
         <v>137</v>
-      </c>
-      <c r="B5" t="s">
-        <v>138</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -2731,15 +2731,15 @@
         <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
         <v>137</v>
-      </c>
-      <c r="B6" t="s">
-        <v>138</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -2757,15 +2757,15 @@
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s">
         <v>137</v>
-      </c>
-      <c r="B7" t="s">
-        <v>138</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -2783,15 +2783,15 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -2809,15 +2809,15 @@
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -2835,15 +2835,15 @@
         <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -2861,15 +2861,15 @@
         <v>2020</v>
       </c>
       <c r="H10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -2887,15 +2887,15 @@
         <v>2020</v>
       </c>
       <c r="H11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -2913,15 +2913,15 @@
         <v>2020</v>
       </c>
       <c r="H12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -2939,15 +2939,15 @@
         <v>2020</v>
       </c>
       <c r="H13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -2965,15 +2965,15 @@
         <v>2020</v>
       </c>
       <c r="H14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -2991,15 +2991,15 @@
         <v>2020</v>
       </c>
       <c r="H15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -3017,15 +3017,15 @@
         <v>2020</v>
       </c>
       <c r="H16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -3043,15 +3043,15 @@
         <v>2020</v>
       </c>
       <c r="H17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -3069,15 +3069,15 @@
         <v>2020</v>
       </c>
       <c r="H18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -3095,15 +3095,15 @@
         <v>2020</v>
       </c>
       <c r="H19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -3121,15 +3121,15 @@
         <v>2020</v>
       </c>
       <c r="H20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -3147,15 +3147,15 @@
         <v>2020</v>
       </c>
       <c r="H21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -3173,15 +3173,15 @@
         <v>2020</v>
       </c>
       <c r="H22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -3199,15 +3199,15 @@
         <v>2020</v>
       </c>
       <c r="H23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -3225,15 +3225,15 @@
         <v>2020</v>
       </c>
       <c r="H24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -3251,15 +3251,15 @@
         <v>2020</v>
       </c>
       <c r="H25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -3277,15 +3277,15 @@
         <v>2020</v>
       </c>
       <c r="H26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -3303,15 +3303,15 @@
         <v>2020</v>
       </c>
       <c r="H27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -3329,15 +3329,15 @@
         <v>2020</v>
       </c>
       <c r="H28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -3355,15 +3355,15 @@
         <v>2020</v>
       </c>
       <c r="H29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -3381,15 +3381,15 @@
         <v>2020</v>
       </c>
       <c r="H30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -3407,15 +3407,15 @@
         <v>2020</v>
       </c>
       <c r="H31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -3433,15 +3433,15 @@
         <v>2020</v>
       </c>
       <c r="H32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -3459,15 +3459,15 @@
         <v>2010</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -3485,7 +3485,7 @@
         <v>2008</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/Edgar_scaling_mapping.xlsx
+++ b/input/mappings/scaling/Edgar_scaling_mapping.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14640" tabRatio="500" activeTab="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="174">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -447,12 +447,6 @@
   </si>
   <si>
     <t>mkd</t>
-  </si>
-  <si>
-    <t>idn</t>
-  </si>
-  <si>
-    <t>Eliminate jump in CO emissions present in EDGAR data</t>
   </si>
   <si>
     <t>Comment</t>
@@ -604,8 +598,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="401">
+  <cellStyleXfs count="405">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1015,7 +1013,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="401">
+  <cellStyles count="405">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1216,6 +1214,8 @@
     <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1416,6 +1416,8 @@
     <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1821,7 +1823,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1982,7 +1984,7 @@
         <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2051,7 +2053,7 @@
         <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2066,7 +2068,7 @@
         <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2076,7 +2078,7 @@
         <v>62</v>
       </c>
       <c r="E30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2106,7 +2108,7 @@
         <v>87</v>
       </c>
       <c r="E33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2120,7 +2122,7 @@
         <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2134,7 +2136,7 @@
         <v>91</v>
       </c>
       <c r="E35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2148,7 +2150,7 @@
         <v>91</v>
       </c>
       <c r="E36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2163,7 +2165,7 @@
         <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2177,7 +2179,7 @@
         <v>29</v>
       </c>
       <c r="E38" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2191,7 +2193,7 @@
         <v>63</v>
       </c>
       <c r="E39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2206,7 +2208,7 @@
         <v>84</v>
       </c>
       <c r="E40" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2221,7 +2223,7 @@
         <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2236,7 +2238,7 @@
         <v>85</v>
       </c>
       <c r="E42" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2251,7 +2253,7 @@
         <v>83</v>
       </c>
       <c r="E43" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2265,7 +2267,7 @@
         <v>101</v>
       </c>
       <c r="E44" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2279,7 +2281,7 @@
         <v>94</v>
       </c>
       <c r="E45" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2293,7 +2295,7 @@
         <v>99</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2308,7 +2310,7 @@
         <v>96</v>
       </c>
       <c r="E47" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2322,7 +2324,7 @@
         <v>94</v>
       </c>
       <c r="E48" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2337,7 +2339,7 @@
         <v>96</v>
       </c>
       <c r="E49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2413,7 +2415,7 @@
         <v>103</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2428,7 +2430,7 @@
         <v>77</v>
       </c>
       <c r="E57" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2442,7 +2444,7 @@
         <v>65</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2457,7 +2459,7 @@
         <v>75</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2592,11 +2594,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2627,15 +2629,15 @@
         <v>140</v>
       </c>
       <c r="H1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -2647,18 +2649,15 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="G2">
-        <v>2010</v>
-      </c>
-      <c r="H2" t="s">
-        <v>143</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
         <v>137</v>
@@ -2676,10 +2675,10 @@
         <v>2000</v>
       </c>
       <c r="G3">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2696,7 +2695,7 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>1980</v>
+        <v>1992</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -2705,7 +2704,7 @@
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2722,7 +2721,7 @@
         <v>9</v>
       </c>
       <c r="E5">
-        <v>1991</v>
+        <v>2000</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -2731,7 +2730,7 @@
         <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2748,7 +2747,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -2757,12 +2756,12 @@
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
         <v>137</v>
@@ -2774,7 +2773,7 @@
         <v>9</v>
       </c>
       <c r="E7">
-        <v>2010</v>
+        <v>1992</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -2783,12 +2782,12 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
         <v>137</v>
@@ -2799,22 +2798,22 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8">
-        <v>1980</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>1992</v>
+      </c>
+      <c r="G8">
+        <v>2009</v>
       </c>
       <c r="H8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
         <v>137</v>
@@ -2825,17 +2824,17 @@
       <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
         <v>1992</v>
       </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
+      <c r="G9">
+        <v>2009</v>
       </c>
       <c r="H9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2858,10 +2857,10 @@
         <v>1992</v>
       </c>
       <c r="G10">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="H10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2884,10 +2883,10 @@
         <v>1992</v>
       </c>
       <c r="G11">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="H11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2910,10 +2909,10 @@
         <v>1992</v>
       </c>
       <c r="G12">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="H12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2936,10 +2935,10 @@
         <v>1992</v>
       </c>
       <c r="G13">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="H13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2962,10 +2961,10 @@
         <v>1992</v>
       </c>
       <c r="G14">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="H14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2988,10 +2987,10 @@
         <v>1992</v>
       </c>
       <c r="G15">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="H15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3014,10 +3013,10 @@
         <v>1992</v>
       </c>
       <c r="G16">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="H16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3040,10 +3039,10 @@
         <v>1992</v>
       </c>
       <c r="G17">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="H17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3066,10 +3065,10 @@
         <v>1992</v>
       </c>
       <c r="G18">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="H18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3092,10 +3091,10 @@
         <v>1992</v>
       </c>
       <c r="G19">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="H19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3118,10 +3117,10 @@
         <v>1992</v>
       </c>
       <c r="G20">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="H20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3144,10 +3143,10 @@
         <v>1992</v>
       </c>
       <c r="G21">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="H21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3170,10 +3169,10 @@
         <v>1992</v>
       </c>
       <c r="G22">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="H22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3196,10 +3195,10 @@
         <v>1992</v>
       </c>
       <c r="G23">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="H23" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3222,15 +3221,15 @@
         <v>1992</v>
       </c>
       <c r="G24">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="H24" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B25" t="s">
         <v>137</v>
@@ -3248,15 +3247,15 @@
         <v>1992</v>
       </c>
       <c r="G25">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="H25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s">
         <v>137</v>
@@ -3274,15 +3273,15 @@
         <v>1992</v>
       </c>
       <c r="G26">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="H26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s">
         <v>137</v>
@@ -3300,10 +3299,10 @@
         <v>1992</v>
       </c>
       <c r="G27">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="H27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3326,15 +3325,15 @@
         <v>1992</v>
       </c>
       <c r="G28">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="H28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s">
         <v>137</v>
@@ -3352,15 +3351,15 @@
         <v>1992</v>
       </c>
       <c r="G29">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="H29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B30" t="s">
         <v>137</v>
@@ -3378,19 +3377,19 @@
         <v>1992</v>
       </c>
       <c r="G30">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="H30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>141</v>
-      </c>
-      <c r="B31" t="s">
         <v>137</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C31" t="s">
         <v>9</v>
       </c>
@@ -3401,21 +3400,21 @@
         <v>9</v>
       </c>
       <c r="F31">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="G31">
-        <v>2020</v>
-      </c>
-      <c r="H31" t="s">
-        <v>171</v>
+        <v>2009</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>170</v>
-      </c>
-      <c r="B32" t="s">
-        <v>137</v>
+        <v>171</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -3427,65 +3426,13 @@
         <v>9</v>
       </c>
       <c r="F32">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="G32">
-        <v>2020</v>
-      </c>
-      <c r="H32" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>137</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33">
-        <v>2000</v>
-      </c>
-      <c r="G33">
-        <v>2010</v>
-      </c>
-      <c r="H33" s="5" t="s">
+        <v>2008</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>173</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34">
-        <v>2000</v>
-      </c>
-      <c r="G34">
-        <v>2008</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/Edgar_scaling_mapping.xlsx
+++ b/input/mappings/scaling/Edgar_scaling_mapping.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orou913\Desktop\CEDS-Repositories\CEDS_N2O\CEDS\input\mappings\scaling\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8133DCA-35C7-4EB7-BE8F-6445714C94B5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14640" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="14640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
     <sheet name="method" sheetId="2" r:id="rId2"/>
     <sheet name="year" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="191">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -543,12 +549,63 @@
   </si>
   <si>
     <t>1A3dii_Domestic-navigation</t>
+  </si>
+  <si>
+    <t>Domestic aviation</t>
+  </si>
+  <si>
+    <t>Memo: International aviation</t>
+  </si>
+  <si>
+    <t>Memo: International navigation</t>
+  </si>
+  <si>
+    <t>Savanna burning</t>
+  </si>
+  <si>
+    <t>Agricultural waste burning</t>
+  </si>
+  <si>
+    <t>Forest fires</t>
+  </si>
+  <si>
+    <t>Grassland fires</t>
+  </si>
+  <si>
+    <t>Peat fires and decay of drained peatland</t>
+  </si>
+  <si>
+    <t>Fossil fuel fires</t>
+  </si>
+  <si>
+    <t>4D3</t>
+  </si>
+  <si>
+    <t>Indirect N2O from agriculture</t>
+  </si>
+  <si>
+    <t>7B</t>
+  </si>
+  <si>
+    <t>Indirect N2O from non-agricultural NOx</t>
+  </si>
+  <si>
+    <t>7C</t>
+  </si>
+  <si>
+    <t>Indirect N2O from non-agricultural NH3</t>
+  </si>
+  <si>
+    <t>7BC_Indirect-N2O-non-agricultural-N</t>
+  </si>
+  <si>
+    <t>Don't scale since is set as default emissions (and in some cases, overwritten with other inventory data). Also, ceds_sector is not provided here, as this EDGAR sector is split among CEDS 3B_Manure-management and CEDS 3D_Soil-emissions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1422,6 +1479,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1746,25 +1811,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="42.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1781,7 +1847,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1795,7 +1861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>40</v>
       </c>
@@ -1803,7 +1869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>40</v>
       </c>
@@ -1811,7 +1877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1826,7 +1892,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -1840,7 +1906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>42</v>
       </c>
@@ -1848,7 +1914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>42</v>
       </c>
@@ -1856,7 +1922,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>42</v>
       </c>
@@ -1864,7 +1930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>42</v>
       </c>
@@ -1872,7 +1938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>42</v>
       </c>
@@ -1880,7 +1946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -1888,7 +1954,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>42</v>
       </c>
@@ -1896,7 +1962,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>42</v>
       </c>
@@ -1904,7 +1970,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>42</v>
       </c>
@@ -1912,7 +1978,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>42</v>
       </c>
@@ -1920,7 +1986,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>42</v>
       </c>
@@ -1928,7 +1994,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>42</v>
       </c>
@@ -1936,11 +2002,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1948,7 +2016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1962,7 +2030,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1976,7 +2044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1987,7 +2055,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -2001,7 +2069,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -2015,7 +2083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>43</v>
       </c>
@@ -2023,7 +2091,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>43</v>
       </c>
@@ -2031,7 +2099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>120</v>
       </c>
@@ -2042,7 +2110,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -2056,7 +2124,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -2071,7 +2139,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" t="s">
@@ -2081,23 +2149,29 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
+      <c r="B31" t="s">
+        <v>175</v>
+      </c>
       <c r="D31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
+      <c r="B32" t="s">
+        <v>176</v>
+      </c>
       <c r="D32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>86</v>
       </c>
@@ -2111,7 +2185,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>88</v>
       </c>
@@ -2125,7 +2199,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -2139,7 +2213,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -2153,7 +2227,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -2168,7 +2242,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -2182,7 +2256,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -2196,7 +2270,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
@@ -2211,7 +2285,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>79</v>
       </c>
@@ -2226,7 +2300,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>80</v>
       </c>
@@ -2241,7 +2315,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>81</v>
       </c>
@@ -2256,7 +2330,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -2270,7 +2344,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -2284,7 +2358,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>98</v>
       </c>
@@ -2298,7 +2372,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>95</v>
       </c>
@@ -2313,7 +2387,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>105</v>
       </c>
@@ -2327,75 +2401,86 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s">
+      <c r="C50" s="2"/>
+      <c r="D50" t="s">
         <v>96</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="D50" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>48</v>
       </c>
-      <c r="C51" t="s">
+      <c r="B52" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" t="s">
         <v>66</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>49</v>
       </c>
-      <c r="D52" t="s">
+      <c r="B53" t="s">
+        <v>178</v>
+      </c>
+      <c r="D53" t="s">
         <v>64</v>
-      </c>
-      <c r="E52" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" t="s">
-        <v>68</v>
       </c>
       <c r="E53" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>51</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="1"/>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="B55" t="s">
+        <v>180</v>
       </c>
       <c r="D55" t="s">
         <v>69</v>
@@ -2404,122 +2489,157 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>102</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>132</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>103</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>133</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s">
+      <c r="C58" s="2"/>
+      <c r="D58" t="s">
         <v>77</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>53</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>134</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>65</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59" t="s">
-        <v>135</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s">
-        <v>75</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>54</v>
       </c>
-      <c r="C60" t="s">
+      <c r="B61" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" t="s">
         <v>54</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="3"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="3"/>
-      <c r="B63" s="4"/>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" t="s">
+        <v>188</v>
+      </c>
       <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="D63" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
     </row>
-    <row r="78" spans="1:4">
-      <c r="D78" s="1"/>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A1:C84">
+  <sortState ref="A1:C85">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2533,21 +2653,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2564,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2593,20 +2713,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2632,7 +2752,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -2655,7 +2775,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>144</v>
       </c>
@@ -2681,7 +2801,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -2707,7 +2827,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -2733,7 +2853,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -2759,7 +2879,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>141</v>
       </c>
@@ -2785,7 +2905,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>148</v>
       </c>
@@ -2811,7 +2931,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -2837,7 +2957,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>150</v>
       </c>
@@ -2863,7 +2983,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>151</v>
       </c>
@@ -2889,7 +3009,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>152</v>
       </c>
@@ -2915,7 +3035,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>153</v>
       </c>
@@ -2941,7 +3061,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>154</v>
       </c>
@@ -2967,7 +3087,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>155</v>
       </c>
@@ -2993,7 +3113,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>156</v>
       </c>
@@ -3019,7 +3139,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>157</v>
       </c>
@@ -3045,7 +3165,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>158</v>
       </c>
@@ -3071,7 +3191,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>159</v>
       </c>
@@ -3097,7 +3217,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>160</v>
       </c>
@@ -3123,7 +3243,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>161</v>
       </c>
@@ -3149,7 +3269,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -3175,7 +3295,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>163</v>
       </c>
@@ -3201,7 +3321,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>164</v>
       </c>
@@ -3227,7 +3347,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>144</v>
       </c>
@@ -3253,7 +3373,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>165</v>
       </c>
@@ -3279,7 +3399,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>166</v>
       </c>
@@ -3305,7 +3425,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>167</v>
       </c>
@@ -3331,7 +3451,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>141</v>
       </c>
@@ -3357,7 +3477,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>168</v>
       </c>
@@ -3383,7 +3503,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>137</v>
       </c>
@@ -3409,7 +3529,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>171</v>
       </c>
